--- a/data/trans_orig/IP16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD74B2A1-2938-4E5A-BF99-6EBBBFB04FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C6EC059-418B-422F-8D3E-7836427299C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D51DFB27-EBD3-4A5E-8FA8-3F40BE1647A4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C5B624FC-55F2-4F2B-B6EC-E4D65005317F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,36 +68,78 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>97,18%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>3,04%</t>
   </si>
   <si>
@@ -107,25 +149,25 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -149,48 +191,6 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
@@ -212,6 +212,36 @@
     <t>Menores según si ha consumido pastillas para dormir en 2012 (Tasa respuesta: 20,68%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
     <t>98,4%</t>
   </si>
   <si>
@@ -236,16 +266,16 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -254,36 +284,6 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>99,14%</t>
   </si>
   <si>
@@ -317,6 +317,30 @@
     <t>Menores según si ha consumido pastillas para dormir en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
     <t>96,91%</t>
   </si>
   <si>
@@ -335,16 +359,10 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>97,8%</t>
@@ -353,24 +371,6 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>98,93%</t>
   </si>
   <si>
@@ -392,6 +392,24 @@
     <t>Menores según si ha consumido pastillas para dormir en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
     <t>97,92%</t>
   </si>
   <si>
@@ -422,22 +440,34 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -450,36 +480,6 @@
   </si>
   <si>
     <t>2,04%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
   </si>
   <si>
     <t>99,24%</t>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0FC165-726A-4592-89E5-74808FB29150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA96203-1E92-4808-98FF-1F2E78161C9B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1031,10 +1031,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1046,10 +1046,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1061,10 +1061,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1133,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1148,10 +1148,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1163,10 +1163,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1341,10 +1341,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1356,10 +1356,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1371,10 +1371,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1443,10 +1443,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1458,10 +1458,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1473,10 +1473,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1496,10 +1496,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1511,10 +1511,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1526,10 +1526,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1598,10 +1598,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1613,10 +1613,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1628,10 +1628,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1651,10 +1651,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1666,10 +1666,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1681,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1753,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1768,10 +1768,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1783,10 +1783,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1971,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659D355-7BBF-4448-A7B7-81550CA97154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A120AE40-14E2-48AD-BF14-975326997B47}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2089,49 +2089,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>40368</v>
+        <v>6234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>80688</v>
+        <v>8885</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,37 +2152,37 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>656</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2206,10 +2206,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>41024</v>
+        <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2221,10 +2221,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>81344</v>
+        <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2253,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2268,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2283,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2307,7 +2307,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,49 +2399,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>47229</v>
+        <v>40320</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>61</v>
+      </c>
+      <c r="I10" s="7">
+        <v>40368</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>117</v>
+      </c>
+      <c r="N10" s="7">
+        <v>80688</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>56</v>
-      </c>
-      <c r="I10" s="7">
-        <v>41786</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>119</v>
-      </c>
-      <c r="N10" s="7">
-        <v>89015</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,37 +2462,37 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,10 +2501,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>47229</v>
+        <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2516,10 +2516,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>41786</v>
+        <v>41024</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2531,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N12" s="7">
-        <v>89015</v>
+        <v>81344</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2554,46 +2554,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>35994</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N13" s="7">
-        <v>8885</v>
+        <v>68958</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2617,7 +2617,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,10 +2656,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>35994</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2671,10 +2671,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2686,10 +2686,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N15" s="7">
-        <v>8885</v>
+        <v>68958</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2709,46 +2709,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47229</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>56</v>
       </c>
-      <c r="D16" s="7">
-        <v>35994</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>53</v>
-      </c>
       <c r="I16" s="7">
-        <v>32964</v>
+        <v>41786</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N16" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2772,7 +2772,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,25 +2811,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7">
+        <v>47229</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>56</v>
       </c>
-      <c r="D18" s="7">
-        <v>35994</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>53</v>
-      </c>
       <c r="I18" s="7">
-        <v>32964</v>
+        <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2841,10 +2841,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N18" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3029,7 +3029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63179D6C-3330-427D-9BC4-6470F20F4CE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22D1827-A1C7-4C68-83B7-5ED98E96E201}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3147,10 +3147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -3162,31 +3162,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9989</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>130</v>
-      </c>
-      <c r="N4" s="7">
-        <v>83846</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3210,37 +3210,37 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,10 +3249,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3264,10 +3264,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3279,10 +3279,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>83846</v>
+        <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3326,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3341,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3365,7 +3365,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,40 +3457,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N10" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -3520,7 +3520,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,10 +3559,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3574,10 +3574,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3589,10 +3589,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N12" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3612,46 +3612,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3675,7 +3675,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,10 +3714,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3729,10 +3729,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3744,10 +3744,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3767,46 +3767,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30146</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>44</v>
       </c>
-      <c r="D16" s="7">
-        <v>27806</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
       <c r="I16" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>86</v>
+      </c>
+      <c r="N16" s="7">
+        <v>62934</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>90</v>
-      </c>
-      <c r="N16" s="7">
-        <v>55421</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3830,7 +3830,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3845,22 +3845,22 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,25 +3869,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>27806</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
       <c r="I18" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3899,10 +3899,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4087,7 +4087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A44DCD-52E1-473F-92F9-858654DD9FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851B47B7-4932-48E4-B911-5625A3991FDC}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4205,49 +4205,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>39395</v>
+        <v>6212</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>100240</v>
+        <v>10378</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,37 +4268,37 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,10 +4307,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -4322,10 +4322,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -4337,10 +4337,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -4369,7 +4369,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4384,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4399,7 +4399,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4423,7 +4423,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4515,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>30809</v>
+        <v>39395</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="N10" s="7">
-        <v>63237</v>
+        <v>100240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,37 +4578,37 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,10 +4617,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -4632,10 +4632,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -4647,10 +4647,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -4670,49 +4670,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>6212</v>
+        <v>56487</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="N13" s="7">
-        <v>10378</v>
+        <v>109980</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,37 +4733,37 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4787,10 +4787,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4802,10 +4802,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4825,49 +4825,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>56487</v>
+        <v>30809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="N16" s="7">
-        <v>109980</v>
+        <v>63237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,34 +4888,34 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1408</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1408</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>146</v>
@@ -4927,10 +4927,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -4942,10 +4942,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4957,10 +4957,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C6EC059-418B-422F-8D3E-7836427299C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DFB083-9FFD-4CBA-AFE8-D25C477BBA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C5B624FC-55F2-4F2B-B6EC-E4D65005317F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{939AD277-27C5-412B-AEA8-8E1A52068906}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,27 +107,18 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>94,97%</t>
   </si>
   <si>
@@ -119,18 +128,18 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
     <t>96,96%</t>
   </si>
   <si>
@@ -140,18 +149,18 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>96,52%</t>
   </si>
   <si>
@@ -161,18 +170,18 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
     <t>96,64%</t>
   </si>
   <si>
@@ -182,13 +191,13 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -200,18 +209,21 @@
     <t>99,53%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2012 (Tasa respuesta: 20,68%)</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
@@ -221,13 +233,10 @@
     <t>82,92%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -236,34 +245,34 @@
     <t>97,58%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>91,9%</t>
+    <t>93,21%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -272,16 +281,25 @@
     <t>98,26%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>2,99%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -290,43 +308,34 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>99,02%</t>
   </si>
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -335,10 +344,13 @@
     <t>92,94%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>96,91%</t>
@@ -350,25 +362,25 @@
     <t>98,54%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>4,07%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>98,93%</t>
@@ -380,34 +392,34 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>Menores según si ha consumido pastillas para dormir en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>94,22%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>97,92%</t>
@@ -416,28 +428,28 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>90,12%</t>
+    <t>90,5%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>97,45%</t>
@@ -446,28 +458,19 @@
     <t>97,57%</t>
   </si>
   <si>
-    <t>91,27%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -476,10 +479,25 @@
     <t>97,96%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>99,24%</t>
@@ -488,40 +506,19 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
 </sst>
 </file>
@@ -532,7 +529,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -628,39 +625,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -712,7 +709,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -823,13 +820,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -838,6 +828,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -902,19 +899,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA96203-1E92-4808-98FF-1F2E78161C9B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CC3637-750F-4472-B97A-C60E97063950}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1031,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1046,34 +1063,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1082,10 +1099,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1097,34 +1114,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1139,13 +1156,13 @@
         <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1154,13 +1171,13 @@
         <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -1169,13 +1186,13 @@
         <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1186,49 +1203,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>23887</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>23124</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>47011</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1237,49 +1254,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>23887</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>23124</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>47011</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1311,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1309,13 +1326,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1324,13 +1341,13 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1341,49 +1358,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>41306</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>41647</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>82952</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,49 +1409,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>41306</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>41647</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>82952</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,13 +1466,13 @@
         <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -1464,13 +1481,13 @@
         <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -1479,13 +1496,13 @@
         <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,49 +1513,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>35123</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>25164</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>60286</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,49 +1564,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>35123</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>25164</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>60286</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,13 +1621,13 @@
         <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -1619,13 +1636,13 @@
         <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1634,13 +1651,13 @@
         <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,49 +1668,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>38817</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>25677</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>64494</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,49 +1719,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>38817</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>25677</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>64494</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,13 +1776,13 @@
         <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -1774,13 +1791,13 @@
         <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -1789,13 +1806,13 @@
         <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,49 +1823,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>143919</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>125305</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M19" s="7">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>269224</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,49 +1874,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>143919</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>125305</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>269224</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1931,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -1929,13 +1946,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -1944,13 +1961,18 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1971,8 +1993,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A120AE40-14E2-48AD-BF14-975326997B47}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD0453-BF7C-4188-AC0D-810B9E0FA767}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1988,7 +2010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2089,49 +2111,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6234</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>8885</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,49 +2162,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6234</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8885</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2219,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2212,13 +2234,13 @@
         <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2227,13 +2249,13 @@
         <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,49 +2266,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>31772</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>25212</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>56985</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,49 +2317,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>31772</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>25212</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>56985</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2374,13 @@
         <v>31772</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -2367,13 +2389,13 @@
         <v>25212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -2382,13 +2404,13 @@
         <v>56985</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,49 +2421,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>40320</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>40368</v>
+        <v>656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>80688</v>
+        <v>656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,49 +2472,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>40320</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>656</v>
+        <v>40368</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="N11" s="7">
-        <v>656</v>
+        <v>80688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,13 +2529,13 @@
         <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -2522,13 +2544,13 @@
         <v>41024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -2537,13 +2559,13 @@
         <v>81344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,49 +2576,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>35994</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>32964</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>68958</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,49 +2627,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>35994</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>32964</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>68958</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2684,13 @@
         <v>35994</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -2677,13 +2699,13 @@
         <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>109</v>
@@ -2692,13 +2714,13 @@
         <v>68958</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,49 +2731,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>47229</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>41786</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>89015</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,49 +2782,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>47229</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>41786</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>89015</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2839,13 @@
         <v>47229</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -2832,13 +2854,13 @@
         <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>119</v>
@@ -2847,13 +2869,13 @@
         <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,49 +2886,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>157966</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>146565</v>
+        <v>656</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
-        <v>433</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>304531</v>
+        <v>656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,49 +2937,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>157966</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="I20" s="7">
-        <v>656</v>
+        <v>146565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="N20" s="7">
-        <v>656</v>
+        <v>304531</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2994,13 @@
         <v>157966</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>212</v>
@@ -2987,13 +3009,13 @@
         <v>147221</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>434</v>
@@ -3002,13 +3024,18 @@
         <v>305187</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3029,8 +3056,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22D1827-A1C7-4C68-83B7-5ED98E96E201}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF793622-A536-42FF-AAFA-AA636663E4B0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3046,7 +3073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3147,49 +3174,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6479</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>9989</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,49 +3225,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6479</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9989</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3282,13 @@
         <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3270,13 +3297,13 @@
         <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3285,13 +3312,13 @@
         <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,49 +3329,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>20667</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>17880</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>38547</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,49 +3380,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>20667</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>17880</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>38547</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3437,13 @@
         <v>20667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -3425,13 +3452,13 @@
         <v>17880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -3440,13 +3467,13 @@
         <v>38547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,49 +3484,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>41147</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>42699</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>83846</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,49 +3535,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>41147</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>42699</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>83846</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3592,13 @@
         <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -3580,13 +3607,13 @@
         <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -3595,13 +3622,13 @@
         <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,49 +3639,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27615</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>90</v>
-      </c>
-      <c r="N13" s="7">
-        <v>55421</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,49 +3690,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>27615</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>55421</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3747,13 @@
         <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -3735,13 +3762,13 @@
         <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -3750,13 +3777,13 @@
         <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,49 +3794,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>30146</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>32788</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>62934</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,49 +3845,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>30146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>32788</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>62934</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3902,13 @@
         <v>30146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -3890,13 +3917,13 @@
         <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -3905,13 +3932,13 @@
         <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,49 +3949,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>123276</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>127461</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>250737</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,49 +4000,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>123276</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>127461</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>250737</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4057,13 @@
         <v>123276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>192</v>
@@ -4045,13 +4072,13 @@
         <v>127461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -4060,13 +4087,18 @@
         <v>250737</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4087,8 +4119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851B47B7-4932-48E4-B911-5625A3991FDC}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B5ED6-D8A2-49F4-B500-765CFAB81E86}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4104,7 +4136,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4205,49 +4237,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4167</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6212</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>10378</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,49 +4288,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6212</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10378</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4345,13 @@
         <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4328,13 +4360,13 @@
         <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -4343,13 +4375,13 @@
         <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +4392,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>21604</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>19323</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>40927</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,49 +4443,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>21604</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>19323</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>40927</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4500,13 @@
         <v>21604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -4483,13 +4515,13 @@
         <v>19323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -4498,13 +4530,13 @@
         <v>40927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4547,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>60845</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>778</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>61</v>
-      </c>
-      <c r="I10" s="7">
-        <v>39395</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>778</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>152</v>
-      </c>
-      <c r="N10" s="7">
-        <v>100240</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,49 +4598,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>60845</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>61</v>
+      </c>
+      <c r="I11" s="7">
+        <v>39395</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>778</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="7">
+        <v>152</v>
+      </c>
+      <c r="N11" s="7">
+        <v>100240</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>778</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4655,13 @@
         <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4638,13 +4670,13 @@
         <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -4653,13 +4685,13 @@
         <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4702,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>53494</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1408</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7">
-        <v>56487</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1408</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>145</v>
-      </c>
-      <c r="N13" s="7">
-        <v>109980</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,49 +4753,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>53494</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>71</v>
+      </c>
+      <c r="I14" s="7">
+        <v>56487</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1408</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>145</v>
+      </c>
+      <c r="N14" s="7">
+        <v>109980</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1408</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4810,13 @@
         <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -4793,13 +4825,13 @@
         <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -4808,13 +4840,13 @@
         <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,49 +4857,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>32427</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>30809</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>93</v>
-      </c>
-      <c r="N16" s="7">
-        <v>63237</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,49 +4908,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>32427</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>30809</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>93</v>
+      </c>
+      <c r="N17" s="7">
+        <v>63237</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4965,13 @@
         <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -4948,13 +4980,13 @@
         <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -4963,13 +4995,13 @@
         <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,49 +5012,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>172537</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2186</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>223</v>
-      </c>
-      <c r="I19" s="7">
-        <v>152226</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2186</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="7">
-        <v>473</v>
-      </c>
-      <c r="N19" s="7">
-        <v>324762</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +5063,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>172537</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <v>223</v>
+      </c>
+      <c r="I20" s="7">
+        <v>152226</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2186</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>473</v>
+      </c>
+      <c r="N20" s="7">
+        <v>324762</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2186</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5120,13 @@
         <v>172537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>226</v>
@@ -5103,13 +5135,13 @@
         <v>154412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -5118,13 +5150,18 @@
         <v>326948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DFB083-9FFD-4CBA-AFE8-D25C477BBA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D979A87-F1D3-4B0C-9EE8-34821A961B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{939AD277-27C5-412B-AEA8-8E1A52068906}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44279BAC-C4DA-491A-9C38-B5DD7D1E5E25}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="162">
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -128,7 +128,7 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -149,7 +149,7 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,48%</t>
@@ -248,25 +248,25 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>6,79%</t>
+    <t>9,94%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,15%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>93,21%</t>
+    <t>90,06%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,85%</t>
+    <t>95,92%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -293,133 +293,139 @@
     <t>0,45%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido pastillas para dormir en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido pastillas para dormir en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido pastillas para dormir en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido pastillas para dormir en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
     <t>2,08%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>9,5%</t>
+    <t>10,02%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>4,17%</t>
   </si>
   <si>
     <t>97,92%</t>
@@ -428,13 +434,13 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>90,5%</t>
+    <t>89,98%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>96,06%</t>
+    <t>95,83%</t>
   </si>
   <si>
     <t>2,55%</t>
@@ -443,13 +449,13 @@
     <t>2,43%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>8,53%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,27%</t>
   </si>
   <si>
     <t>97,45%</t>
@@ -458,13 +464,13 @@
     <t>97,57%</t>
   </si>
   <si>
-    <t>91,12%</t>
+    <t>91,47%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>95,15%</t>
+    <t>95,73%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -488,7 +494,7 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -497,7 +503,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>99,24%</t>
@@ -506,7 +512,7 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -515,7 +521,7 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,11%</t>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -930,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CC3637-750F-4472-B97A-C60E97063950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98177A7F-EFDD-401E-9DD3-C9BBF7201BDB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1993,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD0453-BF7C-4188-AC0D-810B9E0FA767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433D5C74-B107-4373-A6F5-CB78CC631A64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3056,7 +3062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF793622-A536-42FF-AAFA-AA636663E4B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B984-850A-423E-B307-49C383436B76}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4119,7 +4125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B5ED6-D8A2-49F4-B500-765CFAB81E86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1A073A-5979-4260-B418-46116948101F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4434,7 +4440,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4458,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4467,7 +4473,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4482,7 +4488,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4559,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4568,13 +4574,13 @@
         <v>778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4583,13 +4589,13 @@
         <v>778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4613,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4619,10 +4625,10 @@
         <v>39395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -4634,10 +4640,10 @@
         <v>100240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -4714,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4723,13 +4729,13 @@
         <v>1408</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4738,13 +4744,13 @@
         <v>1408</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4768,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4774,10 +4780,10 @@
         <v>56487</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -4789,10 +4795,10 @@
         <v>109980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -4884,7 +4890,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4899,7 +4905,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,7 +4938,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4947,7 +4953,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5024,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5033,13 +5039,13 @@
         <v>2186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5048,13 +5054,13 @@
         <v>2186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5078,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5084,13 +5090,13 @@
         <v>152226</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>473</v>
@@ -5099,13 +5105,13 @@
         <v>324762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D979A87-F1D3-4B0C-9EE8-34821A961B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53CCBA6-3DFE-42E4-9A78-3335A7004C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44279BAC-C4DA-491A-9C38-B5DD7D1E5E25}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F4C777BF-3A29-4FA6-81FB-46DC9405B19E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="141">
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,13 +80,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,117 +95,90 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>96,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
     <t>1,48%</t>
   </si>
   <si>
+    <t>97,18%</t>
+  </si>
+  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>1,98%</t>
   </si>
   <si>
+    <t>95,56%</t>
+  </si>
+  <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
     <t>98,02%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>5,45%</t>
+  </si>
+  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -215,313 +188,277 @@
     <t>Menores según si ha consumido pastillas para dormir en 2012 (Tasa respuesta: 20,68%)</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido pastillas para dormir en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>95,93%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido pastillas para dormir en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
     <t>2,2%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>99,01%</t>
+  </si>
+  <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
     <t>99,48%</t>
   </si>
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
     <t>97,96%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -936,8 +873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98177A7F-EFDD-401E-9DD3-C9BBF7201BDB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540A8C9F-7CBB-470D-8360-E53E6E786493}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1105,10 +1042,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1120,10 +1057,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1135,10 +1072,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1156,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1171,10 +1108,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1186,10 +1123,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1260,10 +1197,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1275,10 +1212,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1290,10 +1227,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N8" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1311,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1326,10 +1263,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1341,10 +1278,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1415,10 +1352,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1430,10 +1367,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1445,10 +1382,10 @@
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1466,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1481,10 +1418,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1496,10 +1433,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1561,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,46 +1507,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>56</v>
+      </c>
+      <c r="I14" s="7">
+        <v>38817</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25164</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1621,10 +1558,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1636,10 +1573,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1651,10 +1588,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1668,7 +1605,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1686,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1701,7 +1638,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1716,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,46 +1662,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D17" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I17" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N17" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1776,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1791,10 +1728,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1806,10 +1743,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1822,171 +1759,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>215</v>
-      </c>
-      <c r="D20" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>190</v>
-      </c>
-      <c r="I20" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>405</v>
-      </c>
-      <c r="N20" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1999,8 +1780,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433D5C74-B107-4373-A6F5-CB78CC631A64}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6596D1-0098-4216-BB03-2AA4FC7AD817}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2016,7 +1797,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2129,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2144,7 +1925,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2159,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,46 +1949,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7">
-        <v>6234</v>
+        <v>34424</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7">
-        <v>8885</v>
+        <v>65870</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2219,10 +2000,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2234,10 +2015,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>6234</v>
+        <v>34424</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2249,10 +2030,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N6" s="7">
-        <v>8885</v>
+        <v>65870</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2272,19 +2053,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2299,22 +2080,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,49 +2104,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>31772</v>
+        <v>40368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I8" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="N8" s="7">
-        <v>56985</v>
+        <v>80688</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,10 +2155,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>31772</v>
+        <v>41024</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2389,10 +2170,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2404,10 +2185,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="N9" s="7">
-        <v>56985</v>
+        <v>81344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2439,37 +2220,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,49 +2259,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7">
+        <v>32964</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>56</v>
       </c>
-      <c r="D11" s="7">
-        <v>40320</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>61</v>
-      </c>
       <c r="I11" s="7">
-        <v>40368</v>
+        <v>35994</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N11" s="7">
-        <v>80688</v>
+        <v>68958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,25 +2310,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>32964</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>40320</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>62</v>
-      </c>
       <c r="I12" s="7">
-        <v>41024</v>
+        <v>35994</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2559,10 +2340,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>81344</v>
+        <v>68958</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2594,7 +2375,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2609,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2624,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,43 +2417,43 @@
         <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>35994</v>
+        <v>41786</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>32964</v>
+        <v>47229</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N14" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2687,7 +2468,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>35994</v>
+        <v>41786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2699,10 +2480,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>32964</v>
+        <v>47229</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2714,10 +2495,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N15" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2731,25 +2512,25 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2764,22 +2545,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,49 +2569,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D17" s="7">
-        <v>47229</v>
+        <v>146565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="I17" s="7">
-        <v>41786</v>
+        <v>157966</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>119</v>
+        <v>433</v>
       </c>
       <c r="N17" s="7">
-        <v>89015</v>
+        <v>304531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,10 +2620,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>47229</v>
+        <v>147221</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2854,10 +2635,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="I18" s="7">
-        <v>41786</v>
+        <v>157966</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2869,10 +2650,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="N18" s="7">
-        <v>89015</v>
+        <v>305187</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2885,171 +2666,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>656</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>656</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>222</v>
-      </c>
-      <c r="D20" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>211</v>
-      </c>
-      <c r="I20" s="7">
-        <v>146565</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>433</v>
-      </c>
-      <c r="N20" s="7">
-        <v>304531</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>222</v>
-      </c>
-      <c r="D21" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>212</v>
-      </c>
-      <c r="I21" s="7">
-        <v>147221</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>434</v>
-      </c>
-      <c r="N21" s="7">
-        <v>305187</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3062,8 +2687,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B984-850A-423E-B307-49C383436B76}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F33D11-1D85-4F7A-B083-E4E0381BBD16}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3079,7 +2704,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3192,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3207,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3222,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,46 +2856,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3282,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3297,10 +2922,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3312,10 +2937,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3347,7 +2972,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3362,7 +2987,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3377,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,46 +3011,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I8" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N8" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3437,10 +3062,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3452,10 +3077,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3467,10 +3092,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3502,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3517,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3532,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,46 +3166,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3592,10 +3217,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3607,10 +3232,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3622,10 +3247,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3657,7 +3282,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3672,7 +3297,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3687,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,43 +3324,43 @@
         <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3750,7 +3375,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3762,10 +3387,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3777,10 +3402,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3794,7 +3419,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3812,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3827,7 +3452,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3842,7 +3467,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,46 +3476,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I17" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N17" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3902,10 +3527,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3917,10 +3542,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I18" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3932,10 +3557,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N18" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3948,171 +3573,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>179</v>
-      </c>
-      <c r="D20" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>192</v>
-      </c>
-      <c r="I20" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>371</v>
-      </c>
-      <c r="N20" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>179</v>
-      </c>
-      <c r="D21" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>192</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>371</v>
-      </c>
-      <c r="N21" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4125,8 +3594,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1A073A-5979-4260-B418-46116948101F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EF2FED-657A-4D6E-861B-102DA2FF6C30}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4142,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4255,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4270,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4285,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,46 +3763,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N5" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4345,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4360,10 +3829,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4375,10 +3844,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4398,19 +3867,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4425,22 +3894,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,49 +3918,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>21604</v>
+        <v>43529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I8" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="N8" s="7">
-        <v>40927</v>
+        <v>107338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,10 +3969,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4515,10 +3984,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4530,10 +3999,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4553,49 +4022,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1405</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>778</v>
+        <v>1405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,46 +4073,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>60845</v>
+        <v>75666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I11" s="7">
-        <v>39395</v>
+        <v>56923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N11" s="7">
-        <v>100240</v>
+        <v>132589</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -4655,10 +4124,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4670,10 +4139,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4685,10 +4154,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4720,37 +4189,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1408</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1408</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,49 +4228,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>56487</v>
+        <v>33809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="N14" s="7">
-        <v>109980</v>
+        <v>64370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,10 +4279,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4825,10 +4294,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4840,10 +4309,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4857,25 +4326,25 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4890,22 +4359,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>2118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,49 +4383,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="D17" s="7">
-        <v>32427</v>
+        <v>175597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I17" s="7">
-        <v>30809</v>
+        <v>182201</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>93</v>
+        <v>473</v>
       </c>
       <c r="N17" s="7">
-        <v>63237</v>
+        <v>357798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,10 +4434,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4980,202 +4449,46 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
+        <v>250</v>
+      </c>
+      <c r="I18" s="7">
+        <v>182201</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
+        <v>476</v>
+      </c>
+      <c r="N18" s="7">
+        <v>359916</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="7">
-        <v>30809</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
-        <v>93</v>
-      </c>
-      <c r="N18" s="7">
-        <v>63237</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2186</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2186</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>250</v>
-      </c>
-      <c r="D20" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>223</v>
-      </c>
-      <c r="I20" s="7">
-        <v>152226</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M20" s="7">
-        <v>473</v>
-      </c>
-      <c r="N20" s="7">
-        <v>324762</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>250</v>
-      </c>
-      <c r="D21" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>226</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>476</v>
-      </c>
-      <c r="N21" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
